--- a/Output/2024-06-05_esiti_positivi_500_v1.xlsx
+++ b/Output/2024-06-05_esiti_positivi_500_v1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,32 +607,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AKCO10598277.001</t>
+          <t>AKCO10469265.001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MANZO PAOLA</t>
+          <t>ALECCI ALFIO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TRAPANI  UT DPTP</t>
+          <t>CATANIA  UT DPCT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 363 del 2020</t>
+          <t>ORDINANZA n. 4827 del 2018</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI TRAPANI</t>
+          <t>TRIBUNALE DI CATANIA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>273M2020 - 2020</t>
+          <t>60236/19 - 2019</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MANZO</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -664,32 +664,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AKCO11464256.074</t>
+          <t>AKCO10598277.001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BERARDI CESARINO</t>
+          <t>MANZO PAOLA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LATINA  UT DPLT</t>
+          <t>TRAPANI  UT DPTP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 12 del 2019</t>
+          <t>ESECUZIONE MOBILIARE n. 363 del 2020</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI LATINA</t>
+          <t>TRIBUNALE DI TRAPANI</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>593/19 - 2019</t>
+          <t>273M2020 - 2020</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BERARDI</t>
+          <t>MANZO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -721,32 +721,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AKCO2908916</t>
+          <t>AKCO11003398.074</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MALNATI CRISTIAN</t>
+          <t>AMATO EMANUELE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VARESE  UT DPVA</t>
+          <t>MILANO 1  UT DPMI1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 1093 del 2019</t>
+          <t>ESECUZIONE MOBILIARE n. 1762 del 2019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI VARESE</t>
+          <t>TRIB.CIV.SEZ. ESECUZIONI</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16/20 - 2020</t>
+          <t>2071 - 2019</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MALNATI</t>
+          <t>EMANUELE AMATO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -778,32 +778,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AKCO300368600.001</t>
+          <t>AKCO11464256.074</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IANNINO MATTEO</t>
+          <t>BERARDI CESARINO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CATANIA  UT DPCT</t>
+          <t>LATINA  UT DPLT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ORDINANZA n. 782 del 2021</t>
+          <t>ESECUZIONE MOBILIARE n. 12 del 2019</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI CATANIA</t>
+          <t>TRIBUNALE DI LATINA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>62316/21 - 2021</t>
+          <t>593/19 - 2019</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>IANNINO MATTEO</t>
+          <t>BERARDI</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -835,32 +835,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AKCO31127567.001</t>
+          <t>AKCO2908916</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CARDELLA SABRINA</t>
+          <t>MALNATI CRISTIAN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TRAPANI  UT DPTP</t>
+          <t>VARESE  UT DPVA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 438 del 2021</t>
+          <t>ESECUZIONE MOBILIARE n. 1093 del 2019</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI TRAPANI</t>
+          <t>TRIBUNALE DI VARESE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>172M/22 - 2022</t>
+          <t>16/20 - 2020</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CARDELLA</t>
+          <t>MALNATI</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -892,32 +892,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AKCO378036</t>
+          <t>AKCO300157482.001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRIGLIONE GIUSEPPE</t>
+          <t>SICALI AGATA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MILANO 1  UT DPMI1</t>
+          <t>CATANIA  UT DPCT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 298 del 2020</t>
+          <t>ORDINANZA n. 562 del 2018</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRIB.CIV.SEZ. ESECUZIONI</t>
+          <t>TRIBUNALE DI CATANIA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2865 - 2020</t>
+          <t>61300/19 - 2019</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TRIGLIONE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -949,32 +949,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AKCO400584738.001</t>
+          <t>AKCO300363061.001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RISPOLI ANTONIO</t>
+          <t>OCCHIPINTI ROBERTA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FROSINONE  UT DPFR</t>
+          <t>RAGUSA  UT DPRG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 145 del 2022</t>
+          <t>ESECUZIONE MOBILIARE n. 683 del 2020</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI FROSINONE</t>
+          <t>TRIBUNALE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>399/2022 - 2022</t>
+          <t>20560 - 2021</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -984,17 +984,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RISPOLI ANTONIO</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IN ATTESA DI PAGAMENTO</t>
+          <t>ATTO REGISTRATO</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1006,32 +1006,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AKCO40836773.001</t>
+          <t>AKCO300368600.001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KADDOURI AALI</t>
+          <t>IANNINO MATTEO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IVREA  UT DPTO2</t>
+          <t>CATANIA  UT DPCT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 1055 del 2017</t>
+          <t>ORDINANZA n. 782 del 2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI IVREA</t>
+          <t>TRIBUNALE DI CATANIA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1111 - 2017</t>
+          <t>62316/21 - 2021</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KADDOURI</t>
+          <t>IANNINO MATTEO</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1063,32 +1063,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AKCO5447180.001</t>
+          <t>AKCO31127567.001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LO GRECO MICHELE</t>
+          <t>CARDELLA SABRINA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CATANIA  UT DPCT</t>
+          <t>TRAPANI  UT DPTP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ORDINANZA n. 4926 del 2019</t>
+          <t>ESECUZIONE MOBILIARE n. 438 del 2021</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI CATANIA</t>
+          <t>TRIBUNALE DI TRAPANI</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>60937/21 - 2021</t>
+          <t>172M/22 - 2022</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>LO GRECO MICHELE</t>
+          <t>CARDELLA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1120,12 +1120,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AKCO800004843658</t>
+          <t>AKCO378036</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SCALABRINO FRANCESCO</t>
+          <t>TRIGLIONE GIUSEPPE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 6228 del 2018</t>
+          <t>ESECUZIONE MOBILIARE n. 298 del 2020</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5626 - 2018</t>
+          <t>2865 - 2020</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SCALABRINO</t>
+          <t>TRIGLIONE</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>STAMPATO AVVISO DI LIQUIDAZIONE</t>
+          <t>ATTO REGISTRATO</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1177,32 +1177,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AKCO890000912527</t>
+          <t>AKCO400584738.001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAOLA MARINO</t>
+          <t>RISPOLI ANTONIO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TRAPANI  UT DPTP</t>
+          <t>FROSINONE  UT DPFR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 68 del 2022</t>
+          <t>ESECUZIONE MOBILIARE n. 145 del 2022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI TRAPANI</t>
+          <t>TRIBUNALE DI FROSINONE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>63M2022 - 2022</t>
+          <t>399/2022 - 2022</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MARINO</t>
+          <t>RISPOLI ANTONIO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ATTO REGISTRATO</t>
+          <t>IN ATTESA DI PAGAMENTO</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1234,32 +1234,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AKCO890006503901</t>
+          <t>AKCO40836773.001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARGHERITA SPADAFINA</t>
+          <t>KADDOURI AALI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BARI  UT DPBA</t>
+          <t>IVREA  UT DPTO2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 3238 del 2017</t>
+          <t>ESECUZIONE MOBILIARE n. 1055 del 2017</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI BARI</t>
+          <t>TRIBUNALE DI IVREA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19 - 2017</t>
+          <t>1111 - 2017</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SPADAFINA</t>
+          <t>KADDOURI</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1291,12 +1291,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AKS40603667</t>
+          <t>AKCO5447180.001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RIELA ANTONELLA LINDA</t>
+          <t>LO GRECO MICHELE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ORDINANZA n. 2734 del 2020</t>
+          <t>ORDINANZA n. 4926 del 2019</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>60286/21 - 2021</t>
+          <t>60937/21 - 2021</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>RIELA</t>
+          <t>LO GRECO MICHELE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1348,47 +1348,47 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AZAL20200000695</t>
+          <t>AKCO800004843658</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CARIOTO PROVVIDENZA</t>
+          <t>SCALABRINO FRANCESCO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ROMA 2 - AURELIO  UT DPRM1</t>
+          <t>MILANO 1  UT DPMI1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 10844 del 2023</t>
+          <t>ESECUZIONE MOBILIARE n. 6228 del 2018</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRIBUNALE CIVILE ROMA</t>
+          <t>TRIB.CIV.SEZ. ESECUZIONI</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>642_24 - 2024</t>
+          <t>5626 - 2018</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>AR HOLDING S.P.A.</t>
+          <t>AK NORDIC AB</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CARIOTO</t>
+          <t>SCALABRINO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ATTO IN FASE DI TASSAZIONE</t>
+          <t>STAMPATO AVVISO DI LIQUIDAZIONE</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1398,49 +1398,49 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Azeta</t>
+          <t>AK NORDIC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AZCC20190203933</t>
+          <t>AKCO800004867114</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATTIOLI MARIA CARLA</t>
+          <t>NICOLO' EMANUELE PARISI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PERUGIA  UT DPPG</t>
+          <t>CATANIA  UT DPCT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 1022 del 2022</t>
+          <t>ORDINANZA n. 265 del 2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRIBUNALE PERUGIA</t>
+          <t>TRIBUNALE DI CATANIA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1790 - 2022</t>
+          <t>62361/21 - 2021</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>POS SRL</t>
+          <t>AK NORDIC AB</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MATTIOLI</t>
+          <t>PARISI NICOLO' EMANUELE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1455,106 +1455,106 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Azeta</t>
+          <t>AK NORDIC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AZCC20190204618</t>
+          <t>AKCO890000912527</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PELLINI PAOLO</t>
+          <t>PAOLA MARINO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CREMONA  UT DPCR</t>
+          <t>TRAPANI  UT DPTP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 481 del 2022</t>
+          <t>ESECUZIONE MOBILIARE n. 68 del 2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI CREMONA</t>
+          <t>TRIBUNALE DI TRAPANI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>536 - 2022</t>
+          <t>63M2022 - 2022</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>POS SRL</t>
+          <t>AK NORDIC AB</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PELLINI</t>
+          <t>MARINO</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>IN ATTESA DI PAGAMENTO</t>
+          <t>ATTO REGISTRATO</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Azeta</t>
+          <t>AK NORDIC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AZCC20190204712</t>
+          <t>AKCO890006503901</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANTIONE DIEGO</t>
+          <t>MARGHERITA SPADAFINA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AGRIGENTO  UT DPAG</t>
+          <t>BARI  UT DPBA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 452 del 2023</t>
+          <t>ESECUZIONE MOBILIARE n. 3238 del 2017</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRIBUNALE AGRIGENTO</t>
+          <t>TRIBUNALE DI BARI</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>487/23 - 2023</t>
+          <t>19 - 2017</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>POS SRL</t>
+          <t>AK NORDIC AB</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MANTIONE</t>
+          <t>SPADAFINA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1569,111 +1569,111 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Azeta</t>
+          <t>AK NORDIC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AZCC20190207732</t>
+          <t>AKS40603667</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IMERA ELISEO</t>
+          <t>RIELA ANTONELLA LINDA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CREMONA  UT DPCR</t>
+          <t>CATANIA  UT DPCT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 1037 del 2023</t>
+          <t>ORDINANZA n. 2734 del 2020</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI CREMONA</t>
+          <t>TRIBUNALE DI CATANIA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>128 - 2024</t>
+          <t>60286/21 - 2021</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>POS SRL</t>
+          <t>AK NORDIC AB</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>IMERA</t>
+          <t>RIELA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>IN ATTESA DI PAGAMENTO</t>
+          <t>ATTO REGISTRATO</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Azeta</t>
+          <t>AK NORDIC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AZCO20190203677</t>
+          <t>AZAL20200000695</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZUGLIAN MIRKA</t>
+          <t>CARIOTO PROVVIDENZA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VICENZA  UT DPVI</t>
+          <t>ROMA 2 - AURELIO  UT DPRM1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 639 del 2022</t>
+          <t>ESECUZIONE MOBILIARE n. 10844 del 2023</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI VICENZA</t>
+          <t>TRIBUNALE CIVILE ROMA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1648 - 2022</t>
+          <t>642_24 - 2024</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A-ZETA S.R.L.</t>
+          <t>AR HOLDING S.P.A.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ZUGLIAN</t>
+          <t>CARIOTO</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ATTO REGISTRATO</t>
+          <t>ATTO IN FASE DI TASSAZIONE</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1690,32 +1690,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AZCO20190203680</t>
+          <t>AZCC20190203933</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIGNANELLI SILVANO</t>
+          <t>MATTIOLI MARIA CARLA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ANCONA  UT DPAN</t>
+          <t>PERUGIA  UT DPPG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 719 del 2022</t>
+          <t>ESECUZIONE MOBILIARE n. 1022 del 2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI ANCONA</t>
+          <t>TRIBUNALE PERUGIA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1019 - 2022</t>
+          <t>1790 - 2022</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MIGNANELLI</t>
+          <t>MATTIOLI</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1747,32 +1747,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AZCO20190204234</t>
+          <t>AZCC20190204618</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORSINI BARBARA</t>
+          <t>PELLINI PAOLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ASCOLI PICENO  UT DPAP</t>
+          <t>CREMONA  UT DPCR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ESECUZIONE MOBILIARE n. 331 del 2023</t>
+          <t>ESECUZIONE MOBILIARE n. 481 del 2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TRIBUNALE DI ASCOLI PICENO</t>
+          <t>TRIBUNALE DI CREMONA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>378 - 2023</t>
+          <t>536 - 2022</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1782,17 +1782,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ORSINI</t>
+          <t>PELLINI</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ATTO REGISTRATO</t>
+          <t>IN ATTESA DI PAGAMENTO</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1804,55 +1804,340 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>AZCC20190204712</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MANTIONE DIEGO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AGRIGENTO  UT DPAG</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ESECUZIONE MOBILIARE n. 452 del 2023</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TRIBUNALE AGRIGENTO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>487/23 - 2023</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>POS SRL</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>MANTIONE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ATTO REGISTRATO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Azeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AZCC20190207732</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IMERA ELISEO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CREMONA  UT DPCR</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ESECUZIONE MOBILIARE n. 1037 del 2023</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TRIBUNALE DI CREMONA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>128 - 2024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>POS SRL</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>IMERA</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>IN ATTESA DI PAGAMENTO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Azeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AZCO20190203677</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ZUGLIAN MIRKA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>VICENZA  UT DPVI</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ESECUZIONE MOBILIARE n. 639 del 2022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TRIBUNALE DI VICENZA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1648 - 2022</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>A-ZETA S.R.L.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ZUGLIAN</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ATTO REGISTRATO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Azeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AZCO20190203680</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MIGNANELLI SILVANO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ANCONA  UT DPAN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ESECUZIONE MOBILIARE n. 719 del 2022</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TRIBUNALE DI ANCONA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1019 - 2022</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>POS SRL</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>MIGNANELLI</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ATTO REGISTRATO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Azeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AZCO20190204234</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ORSINI BARBARA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ASCOLI PICENO  UT DPAP</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ESECUZIONE MOBILIARE n. 331 del 2023</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TRIBUNALE DI ASCOLI PICENO</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>378 - 2023</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>POS SRL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ORSINI</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ATTO REGISTRATO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Azeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>AZCO20190204364</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>GERALI NARCISO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>MASSA-CARRARA  UT DPMS</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>ESECUZIONE MOBILIARE n. 760 del 2023</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>TRIBUNALE</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>6/2024 - 2024</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>POS SRL</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>GERALI NARCISO</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ATTO REGISTRATO</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ATTO REGISTRATO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Azeta</t>
         </is>
